--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT150-001 - Akuntansi - Transaksi - EJT - Keu Fix Kupon Jt  - Cek Jurnal Kupon Obligasi Berkelanjutan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT150-001 - Akuntansi - Transaksi - EJT - Keu Fix Kupon Jt  - Cek Jurnal Kupon Obligasi Berkelanjutan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C02838-93E5-4950-B9A2-EE8BA627F33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12F6E4C-BB3C-4E06-B75A-6211EF5ACD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -111,13 +111,76 @@
   </si>
   <si>
     <t>07/08/2022</t>
+  </si>
+  <si>
+    <t>BC002-I-22-08-00001</t>
+  </si>
+  <si>
+    <t>BC005-I-22-08-00001</t>
+  </si>
+  <si>
+    <t>COLI230200061</t>
+  </si>
+  <si>
+    <t>COLI230200065</t>
+  </si>
+  <si>
+    <t>COLI230200117</t>
+  </si>
+  <si>
+    <t>COLI230200124</t>
+  </si>
+  <si>
+    <t>COLI230200130</t>
+  </si>
+  <si>
+    <t>COLI230200142</t>
+  </si>
+  <si>
+    <t>COLI230200144</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Kupon Obligasi Berkelanjutan III PLN Tahap IV Tahun 2019 Seri C AFS PPLN03CCN4 PRI02-PRI02-Obligasi</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Kupon Sukuk Ijarah Berkelanjutan III PLN Tahap IV Tahun 2019 Seri B AFS SIPPLN03BCN4 PRI05-PRI05-Syariah</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Kupon Obligasi Berkelanjutan II Bank Mandiri Tahap I Tahun 2020 Seri B AFS BMRI02BCN1 PRI02-PRI02-Obligasi</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Kupon Obligasi Berkelanjutan IV Sarana Multi Finance  Tahap VII C - 2019 AFS SMFP04CCN7 PRI02-PRI02-Obligasi</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Kupon Obligasi Berkelanjutan I Sarana Multi Infrastruktur Tahap II Tahun 2017 Seri C AFS SMII01CCN2 PRI02-PRI02-Obligasi</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Kupon Obligasi Negara Republik Indonesia Seri FR0087 HTM FR0087 PRI02-PRI02-Obligasi</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Kupon Obligasi Negara Ritel Republik Indonesia Seri ORI017 AFS ORI017 PRI01-PRI01-Deposito Pasar Uang</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Kupon SBSN Seri PBS011 AFS PBS011 PRI05-PRI05-Syariah</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Kupon Obligasi Negara Ritel Republik Indonesia Seri ORI017 HTMORI017 PRI01-PRI01-Deposito Pasar Uang</t>
+  </si>
+  <si>
+    <t>01/08/2022</t>
+  </si>
+  <si>
+    <t>12/08/2022</t>
+  </si>
+  <si>
+    <t>15/08/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +212,18 @@
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3B4863"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -186,15 +261,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,9 +679,6 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="73.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -638,15 +716,15 @@
       <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="10"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="4"/>
@@ -656,93 +734,524 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="N3" s="5"/>
+    <row r="3" spans="1:24" ht="73.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f xml:space="preserve"> "Username : "&amp;G3&amp;",
+Password : bni1234,
+Search Dokumen ID : "&amp;N3&amp;",
+Tanggal : "&amp;P3</f>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC002-I-22-08-00001,
+Tanggal : 01/08/2022</v>
+      </c>
+      <c r="G3" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+    <row r="4" spans="1:24" ht="75">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F12" si="0" xml:space="preserve"> "Username : "&amp;G4&amp;",
+Password : bni1234,
+Search Dokumen ID : "&amp;N4&amp;",
+Tanggal : "&amp;P4</f>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC005-I-22-08-00001,
+Tanggal : 01/08/2022</v>
+      </c>
+      <c r="G4" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
+      <c r="N4" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:24">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="8"/>
-      <c r="N5" s="5"/>
+    <row r="5" spans="1:24" ht="75">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : COLI230200024,
+Tanggal : 07/08/2022</v>
+      </c>
+      <c r="G5" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="P5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:24">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="N6" s="5"/>
+    <row r="6" spans="1:24" ht="75">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : COLI230200061,
+Tanggal : 12/08/2022</v>
+      </c>
+      <c r="G6" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="P6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:24">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+    <row r="7" spans="1:24" ht="75">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : COLI230200065,
+Tanggal : 12/08/2022</v>
+      </c>
+      <c r="G7" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="P7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" ht="75">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : COLI230200117,
+Tanggal : 15/08/2022</v>
+      </c>
+      <c r="G8" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="75">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : COLI230200124,
+Tanggal : 15/08/2022</v>
+      </c>
+      <c r="G9" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="75">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : COLI230200130,
+Tanggal : 15/08/2022</v>
+      </c>
+      <c r="G10" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="75">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : COLI230200142,
+Tanggal : 15/08/2022</v>
+      </c>
+      <c r="G11" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="75">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : COLI230200144,
+Tanggal : 15/08/2022</v>
+      </c>
+      <c r="G12" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT150-001 - Akuntansi - Transaksi - EJT - Keu Fix Kupon Jt  - Cek Jurnal Kupon Obligasi Berkelanjutan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT150-001 - Akuntansi - Transaksi - EJT - Keu Fix Kupon Jt  - Cek Jurnal Kupon Obligasi Berkelanjutan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12F6E4C-BB3C-4E06-B75A-6211EF5ACD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E9043-4B83-4FB6-91A2-668D075B05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -113,12 +113,6 @@
     <t>07/08/2022</t>
   </si>
   <si>
-    <t>BC002-I-22-08-00001</t>
-  </si>
-  <si>
-    <t>BC005-I-22-08-00001</t>
-  </si>
-  <si>
     <t>COLI230200061</t>
   </si>
   <si>
@@ -174,6 +168,18 @@
   </si>
   <si>
     <t>15/08/2022</t>
+  </si>
+  <si>
+    <t>COLI221200001</t>
+  </si>
+  <si>
+    <t>COLI221200002</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -584,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,6 +685,9 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="73.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -696,13 +705,13 @@
 Password : bni1234,
 Search Dokumen ID : "&amp;N2&amp;",
 Tanggal : "&amp;P2</f>
-        <v>Username : 32660,
+        <v>Username : 38155,
 Password : bni1234,
 Search Dokumen ID : COLI230200024,
 Tanggal : 07/08/2022</v>
       </c>
       <c r="G2" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -736,7 +745,7 @@
     </row>
     <row r="3" spans="1:24" ht="73.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -745,7 +754,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -755,13 +764,13 @@
 Password : bni1234,
 Search Dokumen ID : "&amp;N3&amp;",
 Tanggal : "&amp;P3</f>
-        <v>Username : 32660,
-Password : bni1234,
-Search Dokumen ID : BC002-I-22-08-00001,
+        <v>Username : 38155,
+Password : bni1234,
+Search Dokumen ID : COLI221200001,
 Tanggal : 01/08/2022</v>
       </c>
       <c r="G3" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -777,14 +786,14 @@
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -795,7 +804,7 @@
     </row>
     <row r="4" spans="1:24" ht="75">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -804,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -814,13 +823,13 @@
 Password : bni1234,
 Search Dokumen ID : "&amp;N4&amp;",
 Tanggal : "&amp;P4</f>
-        <v>Username : 32660,
-Password : bni1234,
-Search Dokumen ID : BC005-I-22-08-00001,
+        <v>Username : 38155,
+Password : bni1234,
+Search Dokumen ID : COLI221200002,
 Tanggal : 01/08/2022</v>
       </c>
       <c r="G4" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -836,14 +845,14 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -869,13 +878,13 @@
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Username : 32660,
+        <v>Username : 38155,
 Password : bni1234,
 Search Dokumen ID : COLI230200024,
 Tanggal : 07/08/2022</v>
       </c>
       <c r="G5" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -917,20 +926,20 @@
         <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Username : 32660,
+        <v>Username : 38155,
 Password : bni1234,
 Search Dokumen ID : COLI230200061,
 Tanggal : 12/08/2022</v>
       </c>
       <c r="G6" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -946,14 +955,14 @@
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R6" s="4"/>
     </row>
@@ -968,20 +977,20 @@
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Username : 32660,
+        <v>Username : 38155,
 Password : bni1234,
 Search Dokumen ID : COLI230200065,
 Tanggal : 12/08/2022</v>
       </c>
       <c r="G7" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -997,14 +1006,14 @@
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R7" s="4"/>
     </row>
@@ -1019,20 +1028,20 @@
         <v>26</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Username : 32660,
+        <v>Username : 38155,
 Password : bni1234,
 Search Dokumen ID : COLI230200117,
 Tanggal : 15/08/2022</v>
       </c>
       <c r="G8" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -1048,13 +1057,13 @@
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="75">
@@ -1068,20 +1077,20 @@
         <v>26</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Username : 32660,
+        <v>Username : 38155,
 Password : bni1234,
 Search Dokumen ID : COLI230200124,
 Tanggal : 15/08/2022</v>
       </c>
       <c r="G9" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1097,13 +1106,13 @@
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="75">
@@ -1117,20 +1126,20 @@
         <v>26</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Username : 32660,
+        <v>Username : 38155,
 Password : bni1234,
 Search Dokumen ID : COLI230200130,
 Tanggal : 15/08/2022</v>
       </c>
       <c r="G10" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
@@ -1146,13 +1155,13 @@
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="75">
@@ -1166,20 +1175,20 @@
         <v>26</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Username : 32660,
+        <v>Username : 38155,
 Password : bni1234,
 Search Dokumen ID : COLI230200142,
 Tanggal : 15/08/2022</v>
       </c>
       <c r="G11" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -1195,13 +1204,13 @@
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="75">
@@ -1215,20 +1224,20 @@
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Username : 32660,
+        <v>Username : 38155,
 Password : bni1234,
 Search Dokumen ID : COLI230200144,
 Tanggal : 15/08/2022</v>
       </c>
       <c r="G12" s="2">
-        <v>32660</v>
+        <v>38155</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
@@ -1244,13 +1253,13 @@
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
